--- a/public/templates/iclc_template.xlsx
+++ b/public/templates/iclc_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ab_lamparas\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp2\htdocs\local-council-payment-system\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>STUDENT NAME</t>
   </si>
@@ -35,12 +35,6 @@
     <t>PROGRAM</t>
   </si>
   <si>
-    <t>EMAIL</t>
-  </si>
-  <si>
-    <t>HOME ADDRESS</t>
-  </si>
-  <si>
     <t>2014-00194</t>
   </si>
   <si>
@@ -53,111 +47,24 @@
     <t>BSIT</t>
   </si>
   <si>
-    <t>apadan122598@gmail.com</t>
-  </si>
-  <si>
-    <t>Purok 2 Waan Buhangin District Davao City Purok 2 Waan Buhangin District Davao City</t>
-  </si>
-  <si>
     <t>2016-00615</t>
   </si>
   <si>
     <t>BAUCAN, Eutiquio B.</t>
   </si>
   <si>
-    <t>wowiebaucan8991@gmail.com</t>
-  </si>
-  <si>
-    <t>Caraga,davao Oriental P1 B11 L11 Sampaguita St. Roseville Subd. Damosa Lanang Davao City</t>
-  </si>
-  <si>
     <t>2016-01065</t>
   </si>
   <si>
     <t>CAMELLON, Rich Rhyan S.</t>
   </si>
   <si>
-    <t>richrhyanaz@gmail.com</t>
-  </si>
-  <si>
-    <t>Camp 3 Talomo River, Calinan Davao City Camp 3 Talomo River, Calinan Davao City</t>
-  </si>
-  <si>
     <t>2014-00983</t>
   </si>
   <si>
     <t>CONCEPCION, Patrick Jayson U.</t>
   </si>
   <si>
-    <t>xiangpatrick123@gmail.com</t>
-  </si>
-  <si>
-    <t>#385 Topaz St. Santo Nino Matina Davao City #385 Topaz St. Santo Nino Matina Davao City</t>
-  </si>
-  <si>
-    <t>2016-00653</t>
-  </si>
-  <si>
-    <t>DRILON, Vordi May P.</t>
-  </si>
-  <si>
-    <t>vdrilon23@gmail.com</t>
-  </si>
-  <si>
-    <t>1045 Jacinto Extension, Davao City Purok 7 Balutakay, Hagonoy, Davao Del Sur</t>
-  </si>
-  <si>
-    <t>2016-01025</t>
-  </si>
-  <si>
-    <t>DULAY, Jumar H.</t>
-  </si>
-  <si>
-    <t>jumarhdulay@gmail.com</t>
-  </si>
-  <si>
-    <t>2016-00160</t>
-  </si>
-  <si>
-    <t>LAURDEN, Justine Gay A.</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>laurdenjustinegay@gmail.com</t>
-  </si>
-  <si>
-    <t>San Pedro, Inawayan Sta. Cruz Davao Del Sur Inawayan, Sta. Cruz Davao Del Sur</t>
-  </si>
-  <si>
-    <t>2016-00534</t>
-  </si>
-  <si>
-    <t>LOREN, Sydrick James A.</t>
-  </si>
-  <si>
-    <t>sydrickjames.acaba@gmail.com</t>
-  </si>
-  <si>
-    <t>Quiros St. Bansalan Davao Del Sur</t>
-  </si>
-  <si>
-    <t>LUMEN, Mark B.</t>
-  </si>
-  <si>
-    <t>marklumen7@gmail.com</t>
-  </si>
-  <si>
-    <t>Maharlika Vill. Matina Aplaya Davao City</t>
-  </si>
-  <si>
-    <t>2017-18918</t>
-  </si>
-  <si>
-    <t>PIE, John Mark B.</t>
-  </si>
-  <si>
     <t>Year</t>
   </si>
   <si>
@@ -165,15 +72,6 @@
   </si>
   <si>
     <t>BSCS5</t>
-  </si>
-  <si>
-    <t>BSCS7</t>
-  </si>
-  <si>
-    <t>2017-182918998</t>
-  </si>
-  <si>
-    <t>2016-001692</t>
   </si>
 </sst>
 </file>
@@ -535,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,7 +449,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -560,17 +458,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="1"/>
@@ -607,26 +501,22 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>10</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -634,13 +524,21 @@
       <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="D5" s="3">
         <v>1</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="F5" s="5"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -651,26 +549,22 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>14</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -678,13 +572,21 @@
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="D7" s="3">
         <v>1</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="F7" s="5"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -694,27 +596,13 @@
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -725,9 +613,7 @@
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="3">
-        <v>1</v>
-      </c>
+      <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="5"/>
       <c r="G9" s="3"/>
@@ -738,27 +624,13 @@
       <c r="L9" s="3"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -769,53 +641,35 @@
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="3">
-        <v>1</v>
-      </c>
+      <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="3">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="3">
-        <v>1</v>
-      </c>
+      <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="5"/>
       <c r="G13" s="3"/>
@@ -826,69 +680,41 @@
       <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="3">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="3">
-        <v>1</v>
-      </c>
+      <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="3">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -896,12 +722,10 @@
       <c r="L16" s="3"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
+      <c r="A17" s="6"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="3">
-        <v>1</v>
-      </c>
+      <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="5"/>
       <c r="G17" s="3"/>
@@ -912,27 +736,13 @@
       <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="3">
-        <v>1</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
@@ -943,109 +753,29 @@
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="3">
-        <v>1</v>
-      </c>
+      <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="3">
-        <v>1</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3">
-        <v>1</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="3">
-        <v>1</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="3">
-        <v>1</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
